--- a/documents/example_docs_uni/кафедра КСАИТ.xlsx
+++ b/documents/example_docs_uni/кафедра КСАИТ.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4D241EF-CC88-9442-A082-E768AF9ACB9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF333D-1448-A043-B072-26DA5846C7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16280" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/documents/example_docs_uni/кафедра КСАИТ.xlsx
+++ b/documents/example_docs_uni/кафедра КСАИТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DCF333D-1448-A043-B072-26DA5846C7BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E4CE0-3480-5348-9394-3E31066FE85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
@@ -67,16 +67,16 @@
     <t>lect</t>
   </si>
   <si>
-    <t>ФИИТ</t>
-  </si>
-  <si>
-    <t>все</t>
-  </si>
-  <si>
     <t>practic</t>
   </si>
   <si>
-    <t>09-032</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ФИИТ 09.02.03 2023</t>
+  </si>
+  <si>
+    <t>09-331</t>
   </si>
 </sst>
 </file>
@@ -432,7 +432,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G2" t="s">
         <v>11</v>
@@ -498,7 +498,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3">
         <v>54</v>
@@ -507,7 +507,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="G3" t="s">
         <v>13</v>

--- a/documents/example_docs_uni/кафедра КСАИТ.xlsx
+++ b/documents/example_docs_uni/кафедра КСАИТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819E4CE0-3480-5348-9394-3E31066FE85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AE52B2-C83C-AD4A-AA8A-04A60FBCD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="104">
   <si>
     <t>курс</t>
   </si>
@@ -58,12 +58,6 @@
     <t>направление(полностью)</t>
   </si>
   <si>
-    <t>алгебра и геометрия</t>
-  </si>
-  <si>
-    <t>Гайнуллина Алина Рашидовна</t>
-  </si>
-  <si>
     <t>lect</t>
   </si>
   <si>
@@ -73,20 +67,303 @@
     <t>-</t>
   </si>
   <si>
-    <t>ФИИТ 09.02.03 2023</t>
-  </si>
-  <si>
     <t>09-331</t>
+  </si>
+  <si>
+    <t>Алгебра и геометрия</t>
+  </si>
+  <si>
+    <t>Гайнуллина А.Р.</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>Абайдуллин Р.Н.</t>
+  </si>
+  <si>
+    <t>09-332</t>
+  </si>
+  <si>
+    <t>Дискретная математика</t>
+  </si>
+  <si>
+    <t>Пшеничный П.В.</t>
+  </si>
+  <si>
+    <t>Галимова Г.Р.</t>
+  </si>
+  <si>
+    <t>Информационные технологии</t>
+  </si>
+  <si>
+    <t>Рубцова Р.Г.</t>
+  </si>
+  <si>
+    <t>Основы программирования</t>
+  </si>
+  <si>
+    <t>Тагиров Р.Р.</t>
+  </si>
+  <si>
+    <t>Терентьев Т.Н.</t>
+  </si>
+  <si>
+    <t>Лабораторный практикум по программированию</t>
+  </si>
+  <si>
+    <t>ФИИТ</t>
+  </si>
+  <si>
+    <t>ИБ</t>
+  </si>
+  <si>
+    <t>Глазырина О.В.</t>
+  </si>
+  <si>
+    <t>09-341</t>
+  </si>
+  <si>
+    <t>09-342</t>
+  </si>
+  <si>
+    <t>09-343</t>
+  </si>
+  <si>
+    <t>Кашуба А.Ю.</t>
+  </si>
+  <si>
+    <t>Шорина О.А.</t>
+  </si>
+  <si>
+    <t>Долгов Д.А.</t>
+  </si>
+  <si>
+    <t>Мубараков Б.Г.</t>
+  </si>
+  <si>
+    <t>Математическая логика и теория алгоритмов</t>
+  </si>
+  <si>
+    <t>Михайлов В.Ю.</t>
+  </si>
+  <si>
+    <t>09-231</t>
+  </si>
+  <si>
+    <t>09-232</t>
+  </si>
+  <si>
+    <t>Технологии и методы программирования</t>
+  </si>
+  <si>
+    <t>Васильев А.В.</t>
+  </si>
+  <si>
+    <t>Архитектура вычислительных систем</t>
+  </si>
+  <si>
+    <t>Зискин В.Ф.</t>
+  </si>
+  <si>
+    <t>Лабораторный практикум по технологиям программирования</t>
+  </si>
+  <si>
+    <t>Еникеев Р.Р.</t>
+  </si>
+  <si>
+    <t>Основы технологии UI/UX</t>
+  </si>
+  <si>
+    <t>Андрианова А.А.</t>
+  </si>
+  <si>
+    <t>09-241</t>
+  </si>
+  <si>
+    <t>09-242</t>
+  </si>
+  <si>
+    <t>Шаймухаметов Р.Р.</t>
+  </si>
+  <si>
+    <t>Николаев К.С.</t>
+  </si>
+  <si>
+    <t>Жуманиезов А.Р.</t>
+  </si>
+  <si>
+    <t>Информационная безопасность</t>
+  </si>
+  <si>
+    <t>БИ</t>
+  </si>
+  <si>
+    <t>09-101</t>
+  </si>
+  <si>
+    <t>09-102</t>
+  </si>
+  <si>
+    <t>Криптографические методы защиты информации</t>
+  </si>
+  <si>
+    <t>ПИ</t>
+  </si>
+  <si>
+    <t>Аль-Халиди А.М.</t>
+  </si>
+  <si>
+    <t>09-151</t>
+  </si>
+  <si>
+    <t>09-152</t>
+  </si>
+  <si>
+    <t>09-153</t>
+  </si>
+  <si>
+    <t>Объектно-ориентированный анализ и проектирование</t>
+  </si>
+  <si>
+    <t>09-131</t>
+  </si>
+  <si>
+    <t>09-132</t>
+  </si>
+  <si>
+    <t>Технологии баз данных</t>
+  </si>
+  <si>
+    <t>Компьютерные сети</t>
+  </si>
+  <si>
+    <t>Гостев В.М.</t>
+  </si>
+  <si>
+    <t>Теория информации</t>
+  </si>
+  <si>
+    <t>Компьютерная графика</t>
+  </si>
+  <si>
+    <t>Программирование на Python</t>
+  </si>
+  <si>
+    <t>Программирование на Java</t>
+  </si>
+  <si>
+    <t>09-141</t>
+  </si>
+  <si>
+    <t>09-142</t>
+  </si>
+  <si>
+    <t>Теоретические основы компьютерной безопасности</t>
+  </si>
+  <si>
+    <t>Ишмухаметов Ш.Т.</t>
+  </si>
+  <si>
+    <t>Введение в анализ и разработку систем</t>
+  </si>
+  <si>
+    <t>09-051</t>
+  </si>
+  <si>
+    <t>09-052</t>
+  </si>
+  <si>
+    <t>09-053</t>
+  </si>
+  <si>
+    <t>Теория игр и принятие решений</t>
+  </si>
+  <si>
+    <t>Коннов И.В.</t>
+  </si>
+  <si>
+    <t>09-011</t>
+  </si>
+  <si>
+    <t>09-012</t>
+  </si>
+  <si>
+    <t>09-013</t>
+  </si>
+  <si>
+    <t>Репина А.И.</t>
+  </si>
+  <si>
+    <t>09-031</t>
+  </si>
+  <si>
+    <t>09-032</t>
+  </si>
+  <si>
+    <t>09-033</t>
+  </si>
+  <si>
+    <t>Информационная безопасность компьютерных сетей</t>
+  </si>
+  <si>
+    <t>Интеллектуальные системы</t>
+  </si>
+  <si>
+    <t>Денисов М.П.</t>
+  </si>
+  <si>
+    <t>Технологии и стандарты разработки ПО</t>
+  </si>
+  <si>
+    <t>Геоинформационные системы</t>
+  </si>
+  <si>
+    <t>Системы параллельных вычислений</t>
+  </si>
+  <si>
+    <t>Банковская информатика</t>
+  </si>
+  <si>
+    <t>Командная разработка ПО</t>
+  </si>
+  <si>
+    <t>Моделирование информационных процессов</t>
+  </si>
+  <si>
+    <t>Компьютерное зрение</t>
+  </si>
+  <si>
+    <t>Комплексное обеспечение информационной безопасности</t>
+  </si>
+  <si>
+    <t>09-041</t>
+  </si>
+  <si>
+    <t>Проектирование программного обеспечения</t>
+  </si>
+  <si>
+    <t>Технологии и стандартны разработки ПО</t>
+  </si>
+  <si>
+    <t>ПМИ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -113,8 +390,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -429,22 +715,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="A144" sqref="A144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.1640625" customWidth="1"/>
     <col min="2" max="2" width="26.83203125" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
+    <col min="5" max="5" width="25.1640625" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -467,15 +754,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2">
         <v>36</v>
@@ -484,36 +771,3358 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D3">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5">
+        <v>36</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6">
+        <v>18</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7">
+        <v>18</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8">
+        <v>18</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2">
+        <v>36</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>25</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="L11" s="1"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="2">
+        <v>36</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L12" s="1"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>36</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="2">
+        <v>36</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>25</v>
+      </c>
+      <c r="G14" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="1"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="2">
+        <v>36</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G15" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="1"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="2">
+        <v>36</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" t="s">
+        <v>10</v>
+      </c>
+      <c r="L16" s="1"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D17" s="2">
+        <v>36</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" t="s">
+        <v>25</v>
+      </c>
+      <c r="G17" t="s">
+        <v>15</v>
+      </c>
+      <c r="L17" s="1"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B18" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" t="s">
-        <v>13</v>
-      </c>
+      <c r="C18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="2">
+        <v>36</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>9</v>
+      </c>
+      <c r="L18" s="1"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="2">
+        <v>36</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19" t="s">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>28</v>
+      </c>
+      <c r="L19" s="1"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2">
+        <v>36</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
+      <c r="L20" s="1"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" t="s">
+        <v>13</v>
+      </c>
+      <c r="D21" s="2">
+        <v>36</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="1"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="2">
+        <v>36</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>26</v>
+      </c>
+      <c r="G22" t="s">
+        <v>9</v>
+      </c>
+      <c r="L22" s="1"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>31</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="2">
+        <v>36</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" t="s">
+        <v>13</v>
+      </c>
+      <c r="D24" s="2">
+        <v>36</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" t="s">
+        <v>28</v>
+      </c>
+      <c r="L24" s="1"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="2">
+        <v>36</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>29</v>
+      </c>
+      <c r="L25" s="1"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D26" s="2">
+        <v>36</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" t="s">
+        <v>29</v>
+      </c>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="2">
+        <v>36</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="2">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>26</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="K28" s="1"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="2">
+        <v>36</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29" t="s">
+        <v>25</v>
+      </c>
+      <c r="G29" t="s">
+        <v>9</v>
+      </c>
+      <c r="K29" s="1"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="2">
+        <v>36</v>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30" t="s">
+        <v>25</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="K30" s="1"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="2">
+        <v>36</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31" t="s">
+        <v>25</v>
+      </c>
+      <c r="G31" t="s">
+        <v>38</v>
+      </c>
+      <c r="K31" s="1"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="2">
+        <v>18</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>25</v>
+      </c>
+      <c r="G32" t="s">
+        <v>9</v>
+      </c>
+      <c r="K32" s="1"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>36</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33" t="s">
+        <v>25</v>
+      </c>
+      <c r="G33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K33" s="1"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" t="s">
+        <v>32</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="2">
+        <v>36</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="G34" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="2">
+        <v>54</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D36" s="2">
+        <v>72</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" t="s">
+        <v>37</v>
+      </c>
+      <c r="K36" s="1"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D37" s="2">
+        <v>72</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37" t="s">
+        <v>25</v>
+      </c>
+      <c r="G37" t="s">
+        <v>38</v>
+      </c>
+      <c r="K37" s="1"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D38" s="2">
+        <v>18</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" t="s">
+        <v>37</v>
+      </c>
+      <c r="K38" s="1"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D39" s="2">
+        <v>18</v>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>25</v>
+      </c>
+      <c r="G39" t="s">
+        <v>38</v>
+      </c>
+      <c r="K39" s="1"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="2">
+        <v>36</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40" t="s">
+        <v>26</v>
+      </c>
+      <c r="G40" t="s">
+        <v>9</v>
+      </c>
+      <c r="K40" s="1"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" t="s">
+        <v>17</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D41" s="2">
+        <v>18</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>47</v>
+      </c>
+      <c r="K41" s="1"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D42" s="2">
+        <v>18</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" t="s">
+        <v>48</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="2">
+        <v>18</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+      <c r="F43" t="s">
+        <v>26</v>
+      </c>
+      <c r="G43" t="s">
+        <v>9</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" s="2">
+        <v>36</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>47</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D45" s="2">
+        <v>36</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" t="s">
+        <v>48</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="2">
+        <v>18</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46" t="s">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>9</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D47" s="2">
+        <v>18</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" t="s">
+        <v>47</v>
+      </c>
+      <c r="K47" s="1"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48" t="s">
+        <v>46</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D48" s="2">
+        <v>18</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>48</v>
+      </c>
+      <c r="K48" s="1"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2">
+        <v>18</v>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" t="s">
+        <v>9</v>
+      </c>
+      <c r="K49" s="1"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D50" s="2">
+        <v>18</v>
+      </c>
+      <c r="E50">
+        <v>3</v>
+      </c>
+      <c r="F50" t="s">
+        <v>53</v>
+      </c>
+      <c r="G50" t="s">
+        <v>54</v>
+      </c>
+      <c r="K50" s="1"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D51" s="2">
+        <v>18</v>
+      </c>
+      <c r="E51">
+        <v>3</v>
+      </c>
+      <c r="F51" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="K51" s="1"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D52" s="2">
+        <v>18</v>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52" t="s">
+        <v>57</v>
+      </c>
+      <c r="G52" t="s">
+        <v>9</v>
+      </c>
+      <c r="K52" s="1"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B53" t="s">
+        <v>58</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D53" s="2">
+        <v>18</v>
+      </c>
+      <c r="E53">
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>57</v>
+      </c>
+      <c r="G53" t="s">
+        <v>59</v>
+      </c>
+      <c r="K53" s="1"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" t="s">
+        <v>44</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" s="2">
+        <v>18</v>
+      </c>
+      <c r="E54">
+        <v>3</v>
+      </c>
+      <c r="F54" t="s">
+        <v>57</v>
+      </c>
+      <c r="G54" t="s">
+        <v>60</v>
+      </c>
+      <c r="K54" s="1"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B55" t="s">
+        <v>44</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" s="2">
+        <v>18</v>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55" t="s">
+        <v>57</v>
+      </c>
+      <c r="G55" t="s">
+        <v>61</v>
+      </c>
+      <c r="K55" s="1"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B56" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56" s="2">
+        <v>36</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56" t="s">
+        <v>25</v>
+      </c>
+      <c r="G56" t="s">
+        <v>9</v>
+      </c>
+      <c r="K56" s="1"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57" t="s">
+        <v>46</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="2">
+        <v>36</v>
+      </c>
+      <c r="E57">
+        <v>3</v>
+      </c>
+      <c r="F57" t="s">
+        <v>25</v>
+      </c>
+      <c r="G57" t="s">
+        <v>63</v>
+      </c>
+      <c r="K57" s="1"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B58" t="s">
+        <v>46</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" s="2">
+        <v>36</v>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>25</v>
+      </c>
+      <c r="G58" t="s">
+        <v>64</v>
+      </c>
+      <c r="K58" s="1"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D59" s="2">
+        <v>36</v>
+      </c>
+      <c r="E59">
+        <v>3</v>
+      </c>
+      <c r="F59" t="s">
+        <v>25</v>
+      </c>
+      <c r="G59" t="s">
+        <v>9</v>
+      </c>
+      <c r="K59" s="1"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" s="2">
+        <v>36</v>
+      </c>
+      <c r="E60">
+        <v>3</v>
+      </c>
+      <c r="F60" t="s">
+        <v>25</v>
+      </c>
+      <c r="G60" t="s">
+        <v>63</v>
+      </c>
+      <c r="K60" s="1"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" s="2">
+        <v>36</v>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61" t="s">
+        <v>25</v>
+      </c>
+      <c r="G61" t="s">
+        <v>64</v>
+      </c>
+      <c r="K61" s="1"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B62" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D62" s="2">
+        <v>36</v>
+      </c>
+      <c r="E62">
+        <v>3</v>
+      </c>
+      <c r="F62" t="s">
+        <v>25</v>
+      </c>
+      <c r="G62" t="s">
+        <v>9</v>
+      </c>
+      <c r="K62" s="1"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" s="2">
+        <v>36</v>
+      </c>
+      <c r="E63">
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>25</v>
+      </c>
+      <c r="G63" t="s">
+        <v>63</v>
+      </c>
+      <c r="K63" s="1"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" t="s">
+        <v>67</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" s="2">
+        <v>36</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64" t="s">
+        <v>25</v>
+      </c>
+      <c r="G64" t="s">
+        <v>64</v>
+      </c>
+      <c r="K64" s="1"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D65" s="2">
+        <v>36</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65" t="s">
+        <v>25</v>
+      </c>
+      <c r="G65" t="s">
+        <v>9</v>
+      </c>
+      <c r="K65" s="1"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" t="s">
+        <v>34</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" s="2">
+        <v>18</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>25</v>
+      </c>
+      <c r="G66" t="s">
+        <v>63</v>
+      </c>
+      <c r="K66" s="1"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B67" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" s="2">
+        <v>18</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67" t="s">
+        <v>25</v>
+      </c>
+      <c r="G67" t="s">
+        <v>64</v>
+      </c>
+      <c r="K67" s="1"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="2">
+        <v>18</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>25</v>
+      </c>
+      <c r="G68" t="s">
+        <v>9</v>
+      </c>
+      <c r="K68" s="1"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" s="2">
+        <v>36</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69" t="s">
+        <v>25</v>
+      </c>
+      <c r="G69" t="s">
+        <v>63</v>
+      </c>
+      <c r="K69" s="1"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" s="2">
+        <v>36</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70" t="s">
+        <v>25</v>
+      </c>
+      <c r="G70" t="s">
+        <v>64</v>
+      </c>
+      <c r="K70" s="1"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>44</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" s="2">
+        <v>36</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>25</v>
+      </c>
+      <c r="G71" t="s">
+        <v>9</v>
+      </c>
+      <c r="K71" s="1"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" s="2">
+        <v>36</v>
+      </c>
+      <c r="E72">
+        <v>3</v>
+      </c>
+      <c r="F72" t="s">
+        <v>25</v>
+      </c>
+      <c r="G72" t="s">
+        <v>9</v>
+      </c>
+      <c r="K72" s="1"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B73" t="s">
+        <v>34</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" s="2">
+        <v>18</v>
+      </c>
+      <c r="E73">
+        <v>3</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>72</v>
+      </c>
+      <c r="K73" s="1"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B74" t="s">
+        <v>34</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" s="2">
+        <v>18</v>
+      </c>
+      <c r="E74">
+        <v>3</v>
+      </c>
+      <c r="F74" t="s">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>73</v>
+      </c>
+      <c r="K74" s="1"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75" t="s">
+        <v>36</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D75" s="2">
+        <v>36</v>
+      </c>
+      <c r="E75">
+        <v>3</v>
+      </c>
+      <c r="F75" t="s">
+        <v>26</v>
+      </c>
+      <c r="G75" t="s">
+        <v>9</v>
+      </c>
+      <c r="K75" s="1"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B76" t="s">
+        <v>36</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D76" s="2">
+        <v>36</v>
+      </c>
+      <c r="E76">
+        <v>3</v>
+      </c>
+      <c r="F76" t="s">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>72</v>
+      </c>
+      <c r="K76" s="1"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B77" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="2">
+        <v>36</v>
+      </c>
+      <c r="E77">
+        <v>3</v>
+      </c>
+      <c r="F77" t="s">
+        <v>26</v>
+      </c>
+      <c r="G77" t="s">
+        <v>73</v>
+      </c>
+      <c r="K77" s="1"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" t="s">
+        <v>7</v>
+      </c>
+      <c r="D78">
+        <v>36</v>
+      </c>
+      <c r="E78">
+        <v>3</v>
+      </c>
+      <c r="F78" t="s">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>9</v>
+      </c>
+      <c r="K78" s="1"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79">
+        <v>18</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79" t="s">
+        <v>26</v>
+      </c>
+      <c r="G79" t="s">
+        <v>72</v>
+      </c>
+      <c r="K79" s="1"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B80" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80">
+        <v>18</v>
+      </c>
+      <c r="E80">
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>73</v>
+      </c>
+      <c r="K80" s="1"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B81" t="s">
+        <v>20</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81">
+        <v>54</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81" t="s">
+        <v>26</v>
+      </c>
+      <c r="G81" t="s">
+        <v>72</v>
+      </c>
+      <c r="K81" s="1"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82">
+        <v>54</v>
+      </c>
+      <c r="E82">
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>73</v>
+      </c>
+      <c r="K82" s="1"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B83" t="s">
+        <v>49</v>
+      </c>
+      <c r="C83" t="s">
+        <v>7</v>
+      </c>
+      <c r="D83">
+        <v>36</v>
+      </c>
+      <c r="E83">
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="1"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C84" t="s">
+        <v>8</v>
+      </c>
+      <c r="D84">
+        <v>36</v>
+      </c>
+      <c r="E84">
+        <v>3</v>
+      </c>
+      <c r="F84" t="s">
+        <v>26</v>
+      </c>
+      <c r="G84" t="s">
+        <v>72</v>
+      </c>
+      <c r="K84" s="1"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B85" t="s">
+        <v>49</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85">
+        <v>36</v>
+      </c>
+      <c r="E85">
+        <v>3</v>
+      </c>
+      <c r="F85" t="s">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>73</v>
+      </c>
+      <c r="K85" s="1"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B86" t="s">
+        <v>44</v>
+      </c>
+      <c r="C86" t="s">
+        <v>8</v>
+      </c>
+      <c r="D86">
+        <v>18</v>
+      </c>
+      <c r="E86">
+        <v>4</v>
+      </c>
+      <c r="F86" t="s">
+        <v>57</v>
+      </c>
+      <c r="G86" t="s">
+        <v>9</v>
+      </c>
+      <c r="K86" s="1"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B87" t="s">
+        <v>58</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87">
+        <v>18</v>
+      </c>
+      <c r="E87">
+        <v>4</v>
+      </c>
+      <c r="F87" t="s">
+        <v>57</v>
+      </c>
+      <c r="G87" t="s">
+        <v>77</v>
+      </c>
+      <c r="K87" s="1"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B88" t="s">
+        <v>58</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88">
+        <v>18</v>
+      </c>
+      <c r="E88">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>57</v>
+      </c>
+      <c r="G88" t="s">
+        <v>78</v>
+      </c>
+      <c r="K88" s="1"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>58</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89">
+        <v>18</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>57</v>
+      </c>
+      <c r="G89" t="s">
+        <v>79</v>
+      </c>
+      <c r="K89" s="1"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B90" t="s">
+        <v>81</v>
+      </c>
+      <c r="C90" t="s">
+        <v>7</v>
+      </c>
+      <c r="D90">
+        <v>36</v>
+      </c>
+      <c r="E90">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>103</v>
+      </c>
+      <c r="G90" t="s">
+        <v>9</v>
+      </c>
+      <c r="K90" s="1"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B91" t="s">
+        <v>81</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91">
+        <v>18</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>103</v>
+      </c>
+      <c r="G91" t="s">
+        <v>82</v>
+      </c>
+      <c r="K91" s="1"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B92" t="s">
+        <v>81</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92">
+        <v>18</v>
+      </c>
+      <c r="E92">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>103</v>
+      </c>
+      <c r="G92" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B93" t="s">
+        <v>81</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>103</v>
+      </c>
+      <c r="G93" t="s">
+        <v>84</v>
+      </c>
+      <c r="K93" s="1"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C94" t="s">
+        <v>7</v>
+      </c>
+      <c r="D94">
+        <v>36</v>
+      </c>
+      <c r="E94">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>25</v>
+      </c>
+      <c r="G94" t="s">
+        <v>9</v>
+      </c>
+      <c r="K94" s="1"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B95" t="s">
+        <v>85</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95">
+        <v>18</v>
+      </c>
+      <c r="E95">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>25</v>
+      </c>
+      <c r="G95" t="s">
+        <v>86</v>
+      </c>
+      <c r="K95" s="1"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B96" t="s">
+        <v>85</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96">
+        <v>18</v>
+      </c>
+      <c r="E96">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>25</v>
+      </c>
+      <c r="G96" t="s">
+        <v>87</v>
+      </c>
+      <c r="K96" s="1"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B97" t="s">
+        <v>85</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97">
+        <v>18</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>25</v>
+      </c>
+      <c r="G97" t="s">
+        <v>88</v>
+      </c>
+      <c r="K97" s="1"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B98" t="s">
+        <v>34</v>
+      </c>
+      <c r="C98" t="s">
+        <v>7</v>
+      </c>
+      <c r="D98">
+        <v>36</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>25</v>
+      </c>
+      <c r="G98" t="s">
+        <v>9</v>
+      </c>
+      <c r="K98" s="1"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B99" t="s">
+        <v>34</v>
+      </c>
+      <c r="C99" t="s">
+        <v>7</v>
+      </c>
+      <c r="D99">
+        <v>18</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>25</v>
+      </c>
+      <c r="G99" t="s">
+        <v>86</v>
+      </c>
+      <c r="K99" s="1"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B100" t="s">
+        <v>34</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100">
+        <v>18</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>25</v>
+      </c>
+      <c r="G100" t="s">
+        <v>87</v>
+      </c>
+      <c r="K100" s="1"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B101" t="s">
+        <v>34</v>
+      </c>
+      <c r="C101" t="s">
+        <v>7</v>
+      </c>
+      <c r="D101">
+        <v>18</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>25</v>
+      </c>
+      <c r="G101" t="s">
+        <v>88</v>
+      </c>
+      <c r="K101" s="1"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B102" t="s">
+        <v>91</v>
+      </c>
+      <c r="C102" t="s">
+        <v>7</v>
+      </c>
+      <c r="D102">
+        <v>36</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+      <c r="F102" t="s">
+        <v>25</v>
+      </c>
+      <c r="G102" t="s">
+        <v>9</v>
+      </c>
+      <c r="K102" s="1"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B103" t="s">
+        <v>91</v>
+      </c>
+      <c r="C103" t="s">
+        <v>7</v>
+      </c>
+      <c r="D103">
+        <v>18</v>
+      </c>
+      <c r="E103">
+        <v>4</v>
+      </c>
+      <c r="F103" t="s">
+        <v>25</v>
+      </c>
+      <c r="G103" t="s">
+        <v>86</v>
+      </c>
+      <c r="K103" s="1"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B104" t="s">
+        <v>91</v>
+      </c>
+      <c r="C104" t="s">
+        <v>7</v>
+      </c>
+      <c r="D104">
+        <v>18</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+      <c r="F104" t="s">
+        <v>25</v>
+      </c>
+      <c r="G104" t="s">
+        <v>87</v>
+      </c>
+      <c r="K104" s="1"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B105" t="s">
+        <v>91</v>
+      </c>
+      <c r="C105" t="s">
+        <v>7</v>
+      </c>
+      <c r="D105">
+        <v>18</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+      <c r="F105" t="s">
+        <v>25</v>
+      </c>
+      <c r="G105" t="s">
+        <v>88</v>
+      </c>
+      <c r="K105" s="1"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B106" t="s">
+        <v>49</v>
+      </c>
+      <c r="C106" t="s">
+        <v>7</v>
+      </c>
+      <c r="D106">
+        <v>18</v>
+      </c>
+      <c r="E106">
+        <v>4</v>
+      </c>
+      <c r="F106" t="s">
+        <v>25</v>
+      </c>
+      <c r="G106" t="s">
+        <v>9</v>
+      </c>
+      <c r="K106" s="1"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B107" t="s">
+        <v>49</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107">
+        <v>36</v>
+      </c>
+      <c r="E107">
+        <v>4</v>
+      </c>
+      <c r="F107" t="s">
+        <v>25</v>
+      </c>
+      <c r="G107" t="s">
+        <v>9</v>
+      </c>
+      <c r="K107" s="1"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A108" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B108" t="s">
+        <v>49</v>
+      </c>
+      <c r="C108" t="s">
+        <v>7</v>
+      </c>
+      <c r="D108">
+        <v>18</v>
+      </c>
+      <c r="E108">
+        <v>4</v>
+      </c>
+      <c r="F108" t="s">
+        <v>25</v>
+      </c>
+      <c r="G108" t="s">
+        <v>9</v>
+      </c>
+      <c r="K108" s="1"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A109" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B109" t="s">
+        <v>49</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109">
+        <v>36</v>
+      </c>
+      <c r="E109">
+        <v>4</v>
+      </c>
+      <c r="F109" t="s">
+        <v>25</v>
+      </c>
+      <c r="G109" t="s">
+        <v>9</v>
+      </c>
+      <c r="K109" s="1"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A110" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B110" t="s">
+        <v>44</v>
+      </c>
+      <c r="C110" t="s">
+        <v>7</v>
+      </c>
+      <c r="D110">
+        <v>18</v>
+      </c>
+      <c r="E110">
+        <v>4</v>
+      </c>
+      <c r="F110" t="s">
+        <v>25</v>
+      </c>
+      <c r="G110" t="s">
+        <v>9</v>
+      </c>
+      <c r="K110" s="1"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A111" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B111" t="s">
+        <v>44</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111">
+        <v>36</v>
+      </c>
+      <c r="E111">
+        <v>4</v>
+      </c>
+      <c r="F111" t="s">
+        <v>25</v>
+      </c>
+      <c r="G111" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="1"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A112" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" t="s">
+        <v>42</v>
+      </c>
+      <c r="C112" t="s">
+        <v>7</v>
+      </c>
+      <c r="D112">
+        <v>18</v>
+      </c>
+      <c r="E112">
+        <v>4</v>
+      </c>
+      <c r="F112" t="s">
+        <v>25</v>
+      </c>
+      <c r="G112" t="s">
+        <v>9</v>
+      </c>
+      <c r="K112" s="1"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A113" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B113" t="s">
+        <v>42</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113">
+        <v>36</v>
+      </c>
+      <c r="E113">
+        <v>4</v>
+      </c>
+      <c r="F113" t="s">
+        <v>25</v>
+      </c>
+      <c r="G113" t="s">
+        <v>9</v>
+      </c>
+      <c r="K113" s="1"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A114" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114">
+        <v>36</v>
+      </c>
+      <c r="E114">
+        <v>4</v>
+      </c>
+      <c r="F114" t="s">
+        <v>25</v>
+      </c>
+      <c r="G114" t="s">
+        <v>86</v>
+      </c>
+      <c r="K114" s="1"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A115" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B115" t="s">
+        <v>20</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115">
+        <v>36</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+      <c r="F115" t="s">
+        <v>25</v>
+      </c>
+      <c r="G115" t="s">
+        <v>87</v>
+      </c>
+      <c r="K115" s="1"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A116" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116">
+        <v>36</v>
+      </c>
+      <c r="E116">
+        <v>4</v>
+      </c>
+      <c r="F116" t="s">
+        <v>25</v>
+      </c>
+      <c r="G116" t="s">
+        <v>88</v>
+      </c>
+      <c r="K116" s="1"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A117" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B117" t="s">
+        <v>81</v>
+      </c>
+      <c r="C117" t="s">
+        <v>7</v>
+      </c>
+      <c r="D117">
+        <v>36</v>
+      </c>
+      <c r="E117">
+        <v>4</v>
+      </c>
+      <c r="F117" t="s">
+        <v>25</v>
+      </c>
+      <c r="G117" t="s">
+        <v>9</v>
+      </c>
+      <c r="K117" s="1"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A118" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="C118" t="s">
+        <v>8</v>
+      </c>
+      <c r="D118">
+        <v>18</v>
+      </c>
+      <c r="E118">
+        <v>4</v>
+      </c>
+      <c r="F118" t="s">
+        <v>25</v>
+      </c>
+      <c r="G118" t="s">
+        <v>86</v>
+      </c>
+      <c r="K118" s="1"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A119" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B119" t="s">
+        <v>81</v>
+      </c>
+      <c r="C119" t="s">
+        <v>8</v>
+      </c>
+      <c r="D119">
+        <v>18</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+      <c r="F119" t="s">
+        <v>25</v>
+      </c>
+      <c r="G119" t="s">
+        <v>87</v>
+      </c>
+      <c r="K119" s="1"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A120" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B120" t="s">
+        <v>81</v>
+      </c>
+      <c r="C120" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120">
+        <v>18</v>
+      </c>
+      <c r="E120">
+        <v>4</v>
+      </c>
+      <c r="F120" t="s">
+        <v>25</v>
+      </c>
+      <c r="G120" t="s">
+        <v>88</v>
+      </c>
+      <c r="K120" s="1"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A121" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B121" t="s">
+        <v>46</v>
+      </c>
+      <c r="C121" t="s">
+        <v>7</v>
+      </c>
+      <c r="D121">
+        <v>36</v>
+      </c>
+      <c r="E121">
+        <v>4</v>
+      </c>
+      <c r="F121" t="s">
+        <v>25</v>
+      </c>
+      <c r="G121" t="s">
+        <v>9</v>
+      </c>
+      <c r="K121" s="1"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A122" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B122" t="s">
+        <v>46</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122">
+        <v>18</v>
+      </c>
+      <c r="E122">
+        <v>4</v>
+      </c>
+      <c r="F122" t="s">
+        <v>25</v>
+      </c>
+      <c r="G122" t="s">
+        <v>86</v>
+      </c>
+      <c r="K122" s="1"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A123" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B123" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123">
+        <v>18</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+      <c r="F123" t="s">
+        <v>25</v>
+      </c>
+      <c r="G123" t="s">
+        <v>87</v>
+      </c>
+      <c r="K123" s="1"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A124" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B124" t="s">
+        <v>46</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124">
+        <v>18</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="F124" t="s">
+        <v>25</v>
+      </c>
+      <c r="G124" t="s">
+        <v>88</v>
+      </c>
+      <c r="K124" s="1"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A125" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B125" t="s">
+        <v>75</v>
+      </c>
+      <c r="C125" t="s">
+        <v>7</v>
+      </c>
+      <c r="D125">
+        <v>36</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+      <c r="F125" t="s">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>100</v>
+      </c>
+      <c r="K125" s="1"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A126" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B126" t="s">
+        <v>75</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126">
+        <v>36</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+      <c r="F126" t="s">
+        <v>26</v>
+      </c>
+      <c r="G126" t="s">
+        <v>100</v>
+      </c>
+      <c r="K126" s="1"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A127" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B127" t="s">
+        <v>20</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D127" s="2">
+        <v>18</v>
+      </c>
+      <c r="E127">
+        <v>4</v>
+      </c>
+      <c r="F127" t="s">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>100</v>
+      </c>
+      <c r="K127" s="1"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A128" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B128" t="s">
+        <v>20</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" s="2">
+        <v>18</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+      <c r="F128" t="s">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>100</v>
+      </c>
+      <c r="K128" s="1"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A129" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B129" t="s">
+        <v>49</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D129" s="2">
+        <v>36</v>
+      </c>
+      <c r="E129">
+        <v>4</v>
+      </c>
+      <c r="F129" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>100</v>
+      </c>
+      <c r="K129" s="1"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A130" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B130" t="s">
+        <v>49</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" s="2">
+        <v>18</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+      <c r="F130" t="s">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>100</v>
+      </c>
+      <c r="K130" s="1"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A131" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B131" t="s">
+        <v>46</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D131" s="2">
+        <v>36</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
+      </c>
+      <c r="F131" t="s">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>100</v>
+      </c>
+      <c r="K131" s="1"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A132" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B132" t="s">
+        <v>46</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" s="2">
+        <v>36</v>
+      </c>
+      <c r="E132">
+        <v>4</v>
+      </c>
+      <c r="F132" t="s">
+        <v>26</v>
+      </c>
+      <c r="G132" t="s">
+        <v>100</v>
+      </c>
+      <c r="K132" s="1"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>96</v>
+      </c>
+      <c r="B133" t="s">
+        <v>20</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D133" s="2">
+        <v>36</v>
+      </c>
+      <c r="E133">
+        <v>4</v>
+      </c>
+      <c r="F133" t="s">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>100</v>
+      </c>
+      <c r="K133" s="1"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>96</v>
+      </c>
+      <c r="B134" t="s">
+        <v>20</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" s="2">
+        <v>18</v>
+      </c>
+      <c r="E134">
+        <v>4</v>
+      </c>
+      <c r="F134" t="s">
+        <v>26</v>
+      </c>
+      <c r="G134" t="s">
+        <v>100</v>
+      </c>
+      <c r="K134" s="1"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A135" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B135" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D135" s="2">
+        <v>36</v>
+      </c>
+      <c r="E135">
+        <v>3</v>
+      </c>
+      <c r="F135" t="s">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>9</v>
+      </c>
+      <c r="K135" s="1"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A136" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B136" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D136" s="2">
+        <v>18</v>
+      </c>
+      <c r="E136">
+        <v>4</v>
+      </c>
+      <c r="F136" t="s">
+        <v>103</v>
+      </c>
+      <c r="G136" t="s">
+        <v>9</v>
+      </c>
+      <c r="K136" s="1"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A137" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B137" t="s">
+        <v>46</v>
+      </c>
+      <c r="C137" t="s">
+        <v>7</v>
+      </c>
+      <c r="D137">
+        <v>36</v>
+      </c>
+      <c r="E137">
+        <v>4</v>
+      </c>
+      <c r="F137" t="s">
+        <v>26</v>
+      </c>
+      <c r="G137" t="s">
+        <v>9</v>
+      </c>
+      <c r="K137" s="1"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A138" s="1"/>
+      <c r="C138" s="1"/>
+      <c r="D138" s="1"/>
+      <c r="K138" s="1"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A139" s="1"/>
+      <c r="C139" s="1"/>
+      <c r="D139" s="1"/>
+      <c r="K139" s="1"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A140" s="1"/>
+      <c r="C140" s="1"/>
+      <c r="D140" s="1"/>
+      <c r="K140" s="1"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A141" s="1"/>
+      <c r="C141" s="1"/>
+      <c r="D141" s="1"/>
+      <c r="K141" s="1"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A142" s="1"/>
+      <c r="C142" s="1"/>
+      <c r="D142" s="1"/>
+      <c r="K142" s="1"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A143" s="1"/>
+      <c r="C143" s="1"/>
+      <c r="D143" s="1"/>
+      <c r="K143" s="1"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A144" s="1"/>
+      <c r="C144" s="1"/>
+      <c r="D144" s="1"/>
+      <c r="K144" s="1"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A145" s="1"/>
+      <c r="C145" s="1"/>
+      <c r="D145" s="1"/>
+      <c r="K145" s="1"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A146" s="1"/>
+      <c r="C146" s="1"/>
+      <c r="D146" s="1"/>
+      <c r="K146" s="1"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A147" s="1"/>
+      <c r="C147" s="1"/>
+      <c r="D147" s="1"/>
+      <c r="K147" s="1"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A148" s="1"/>
+      <c r="C148" s="1"/>
+      <c r="D148" s="1"/>
+      <c r="K148" s="1"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A149" s="1"/>
+      <c r="C149" s="1"/>
+      <c r="D149" s="1"/>
+      <c r="K149" s="1"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A150" s="1"/>
+      <c r="C150" s="1"/>
+      <c r="D150" s="1"/>
+      <c r="K150" s="1"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A151" s="1"/>
+      <c r="C151" s="1"/>
+      <c r="D151" s="1"/>
+      <c r="K151" s="1"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A152" s="1"/>
+      <c r="C152" s="1"/>
+      <c r="D152" s="1"/>
+      <c r="K152" s="1"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A153" s="1"/>
+      <c r="C153" s="1"/>
+      <c r="D153" s="1"/>
+      <c r="K153" s="1"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A154" s="1"/>
+      <c r="C154" s="1"/>
+      <c r="D154" s="1"/>
+      <c r="K154" s="1"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A155" s="1"/>
+      <c r="C155" s="1"/>
+      <c r="D155" s="1"/>
+      <c r="K155" s="1"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A156" s="1"/>
+      <c r="C156" s="1"/>
+      <c r="D156" s="1"/>
+      <c r="K156" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/documents/example_docs_uni/кафедра КСАИТ.xlsx
+++ b/documents/example_docs_uni/кафедра КСАИТ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ekaterinaslapnikova/Desktop/myCockroches/выпускная квалификационная работа/project/graduate-work/documents/example_docs_uni/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3AE52B2-C83C-AD4A-AA8A-04A60FBCD7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E05A6C7F-6F7C-1F42-B1B6-0807331A7003}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15960" xr2:uid="{FBBDF933-0F1E-AC40-80DD-8DB0C1995A3B}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="111">
   <si>
     <t>курс</t>
   </si>
@@ -112,12 +112,6 @@
     <t>Лабораторный практикум по программированию</t>
   </si>
   <si>
-    <t>ФИИТ</t>
-  </si>
-  <si>
-    <t>ИБ</t>
-  </si>
-  <si>
     <t>Глазырина О.В.</t>
   </si>
   <si>
@@ -196,9 +190,6 @@
     <t>Информационная безопасность</t>
   </si>
   <si>
-    <t>БИ</t>
-  </si>
-  <si>
     <t>09-101</t>
   </si>
   <si>
@@ -208,9 +199,6 @@
     <t>Криптографические методы защиты информации</t>
   </si>
   <si>
-    <t>ПИ</t>
-  </si>
-  <si>
     <t>Аль-Халиди А.М.</t>
   </si>
   <si>
@@ -346,7 +334,40 @@
     <t>Технологии и стандартны разработки ПО</t>
   </si>
   <si>
-    <t>ПМИ</t>
+    <t>02.03.02 ФИИТ 2023</t>
+  </si>
+  <si>
+    <t>02.03.02 ФИИТ 2020</t>
+  </si>
+  <si>
+    <t>02.03.02 ФИИТ 2021</t>
+  </si>
+  <si>
+    <t>02.03.02 ФИИТ 2022</t>
+  </si>
+  <si>
+    <t>10.03.01 ИБ 2023</t>
+  </si>
+  <si>
+    <t>10.03.01 ИБ 2020</t>
+  </si>
+  <si>
+    <t>10.03.01 ИБ 2021</t>
+  </si>
+  <si>
+    <t>10.03.01 ИБ 2022</t>
+  </si>
+  <si>
+    <t>38.03.05 БИ 2021</t>
+  </si>
+  <si>
+    <t>09.03.03 ПИ 2021</t>
+  </si>
+  <si>
+    <t>09.03.03 ПИ 2020</t>
+  </si>
+  <si>
+    <t>01.03.02 ПМИ 2020</t>
   </si>
 </sst>
 </file>
@@ -717,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40E4EB94-B1C0-BE47-A9AD-9B963093183B}">
   <dimension ref="A1:L156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="A144" sqref="A144"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,7 +792,7 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G2" t="s">
         <v>9</v>
@@ -794,7 +815,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G3" t="s">
         <v>10</v>
@@ -817,7 +838,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G4" t="s">
         <v>15</v>
@@ -840,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -863,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -886,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
         <v>15</v>
@@ -909,7 +930,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
         <v>9</v>
@@ -932,7 +953,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G9" t="s">
         <v>10</v>
@@ -955,7 +976,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G10" t="s">
         <v>15</v>
@@ -978,7 +999,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G11" t="s">
         <v>9</v>
@@ -1002,7 +1023,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
@@ -1026,7 +1047,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G13" t="s">
         <v>10</v>
@@ -1050,7 +1071,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G14" t="s">
         <v>15</v>
@@ -1074,7 +1095,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G15" t="s">
         <v>15</v>
@@ -1098,7 +1119,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G16" t="s">
         <v>10</v>
@@ -1122,7 +1143,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="s">
-        <v>25</v>
+        <v>99</v>
       </c>
       <c r="G17" t="s">
         <v>15</v>
@@ -1146,7 +1167,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G18" t="s">
         <v>9</v>
@@ -1158,7 +1179,7 @@
         <v>11</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
         <v>13</v>
@@ -1170,10 +1191,10 @@
         <v>1</v>
       </c>
       <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
         <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>28</v>
       </c>
       <c r="L19" s="1"/>
     </row>
@@ -1182,7 +1203,7 @@
         <v>11</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>13</v>
@@ -1194,10 +1215,10 @@
         <v>1</v>
       </c>
       <c r="F20" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G20" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L20" s="1"/>
     </row>
@@ -1218,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G21" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="L21" s="1"/>
     </row>
@@ -1242,7 +1263,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
         <v>9</v>
@@ -1254,7 +1275,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C23" t="s">
         <v>8</v>
@@ -1266,10 +1287,10 @@
         <v>1</v>
       </c>
       <c r="F23" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" t="s">
         <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
       </c>
       <c r="L23" s="1"/>
     </row>
@@ -1278,7 +1299,7 @@
         <v>21</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C24" t="s">
         <v>13</v>
@@ -1290,10 +1311,10 @@
         <v>1</v>
       </c>
       <c r="F24" t="s">
+        <v>103</v>
+      </c>
+      <c r="G24" t="s">
         <v>26</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
       </c>
       <c r="L24" s="1"/>
     </row>
@@ -1302,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C25" t="s">
         <v>8</v>
@@ -1314,10 +1335,10 @@
         <v>1</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L25" s="1"/>
     </row>
@@ -1326,7 +1347,7 @@
         <v>21</v>
       </c>
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>13</v>
@@ -1338,10 +1359,10 @@
         <v>1</v>
       </c>
       <c r="F26" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L26" s="1"/>
     </row>
@@ -1362,10 +1383,10 @@
         <v>1</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -1385,19 +1406,19 @@
         <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>26</v>
+        <v>103</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K28" s="1"/>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>7</v>
@@ -1409,7 +1430,7 @@
         <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G29" t="s">
         <v>9</v>
@@ -1418,10 +1439,10 @@
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>8</v>
@@ -1433,19 +1454,19 @@
         <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B31" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>8</v>
@@ -1457,19 +1478,19 @@
         <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K31" s="1"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>7</v>
@@ -1481,7 +1502,7 @@
         <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G32" t="s">
         <v>9</v>
@@ -1490,10 +1511,10 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>13</v>
@@ -1505,19 +1526,19 @@
         <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>13</v>
@@ -1529,19 +1550,19 @@
         <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B35" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C35" s="3" t="s">
         <v>7</v>
@@ -1553,7 +1574,7 @@
         <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G35" t="s">
         <v>9</v>
@@ -1562,10 +1583,10 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C36" s="3" t="s">
         <v>13</v>
@@ -1577,19 +1598,19 @@
         <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G36" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B37" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C37" s="3" t="s">
         <v>13</v>
@@ -1601,19 +1622,19 @@
         <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G37" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K37" s="1"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>13</v>
@@ -1625,19 +1646,19 @@
         <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G38" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="K38" s="1"/>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>13</v>
@@ -1649,10 +1670,10 @@
         <v>2</v>
       </c>
       <c r="F39" t="s">
-        <v>25</v>
+        <v>102</v>
       </c>
       <c r="G39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K39" s="1"/>
     </row>
@@ -1673,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
         <v>9</v>
@@ -1697,10 +1718,10 @@
         <v>2</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K41" s="1"/>
     </row>
@@ -1721,19 +1742,19 @@
         <v>2</v>
       </c>
       <c r="F42" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>7</v>
@@ -1745,7 +1766,7 @@
         <v>2</v>
       </c>
       <c r="F43" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
         <v>9</v>
@@ -1754,10 +1775,10 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>13</v>
@@ -1769,19 +1790,19 @@
         <v>2</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K44" s="1"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>13</v>
@@ -1793,19 +1814,19 @@
         <v>2</v>
       </c>
       <c r="F45" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>7</v>
@@ -1817,7 +1838,7 @@
         <v>2</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
         <v>9</v>
@@ -1826,10 +1847,10 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>13</v>
@@ -1841,19 +1862,19 @@
         <v>2</v>
       </c>
       <c r="F47" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>13</v>
@@ -1865,19 +1886,19 @@
         <v>2</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
+        <v>106</v>
       </c>
       <c r="G48" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="K48" s="1"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>7</v>
@@ -1889,7 +1910,7 @@
         <v>3</v>
       </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G49" t="s">
         <v>9</v>
@@ -1898,10 +1919,10 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C50" s="3" t="s">
         <v>8</v>
@@ -1913,19 +1934,19 @@
         <v>3</v>
       </c>
       <c r="F50" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="K50" s="1"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C51" s="3" t="s">
         <v>8</v>
@@ -1937,19 +1958,19 @@
         <v>3</v>
       </c>
       <c r="F51" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>7</v>
@@ -1961,7 +1982,7 @@
         <v>3</v>
       </c>
       <c r="F52" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G52" t="s">
         <v>9</v>
@@ -1970,10 +1991,10 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B53" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C53" s="3" t="s">
         <v>13</v>
@@ -1985,19 +2006,19 @@
         <v>3</v>
       </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G53" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>13</v>
@@ -2009,19 +2030,19 @@
         <v>3</v>
       </c>
       <c r="F54" t="s">
-        <v>57</v>
+        <v>108</v>
       </c>
       <c r="G54" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>13</v>
@@ -2033,19 +2054,19 @@
         <v>3</v>
       </c>
       <c r="F55" t="s">
+        <v>108</v>
+      </c>
+      <c r="G55" t="s">
         <v>57</v>
-      </c>
-      <c r="G55" t="s">
-        <v>61</v>
       </c>
       <c r="K55" s="1"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B56" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C56" s="3" t="s">
         <v>7</v>
@@ -2057,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="F56" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
         <v>9</v>
@@ -2066,10 +2087,10 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B57" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>13</v>
@@ -2081,19 +2102,19 @@
         <v>3</v>
       </c>
       <c r="F57" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G57" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="B58" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>13</v>
@@ -2105,19 +2126,19 @@
         <v>3</v>
       </c>
       <c r="F58" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G58" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B59" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>7</v>
@@ -2129,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="F59" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
         <v>9</v>
@@ -2138,7 +2159,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -2153,16 +2174,16 @@
         <v>3</v>
       </c>
       <c r="F60" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -2177,19 +2198,19 @@
         <v>3</v>
       </c>
       <c r="F61" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B62" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C62" s="3" t="s">
         <v>7</v>
@@ -2201,7 +2222,7 @@
         <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G62" t="s">
         <v>9</v>
@@ -2210,10 +2231,10 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>13</v>
@@ -2225,19 +2246,19 @@
         <v>3</v>
       </c>
       <c r="F63" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>13</v>
@@ -2249,19 +2270,19 @@
         <v>3</v>
       </c>
       <c r="F64" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>7</v>
@@ -2273,7 +2294,7 @@
         <v>3</v>
       </c>
       <c r="F65" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G65" t="s">
         <v>9</v>
@@ -2282,10 +2303,10 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>13</v>
@@ -2297,19 +2318,19 @@
         <v>3</v>
       </c>
       <c r="F66" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K66" s="1"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B67" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C67" s="3" t="s">
         <v>13</v>
@@ -2321,19 +2342,19 @@
         <v>3</v>
       </c>
       <c r="F67" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G67" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B68" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>7</v>
@@ -2345,7 +2366,7 @@
         <v>3</v>
       </c>
       <c r="F68" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
         <v>9</v>
@@ -2354,10 +2375,10 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B69" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>13</v>
@@ -2369,19 +2390,19 @@
         <v>3</v>
       </c>
       <c r="F69" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G69" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C70" s="3" t="s">
         <v>13</v>
@@ -2393,19 +2414,19 @@
         <v>3</v>
       </c>
       <c r="F70" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G70" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>13</v>
@@ -2417,7 +2438,7 @@
         <v>3</v>
       </c>
       <c r="F71" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
         <v>9</v>
@@ -2426,10 +2447,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>13</v>
@@ -2441,7 +2462,7 @@
         <v>3</v>
       </c>
       <c r="F72" t="s">
-        <v>25</v>
+        <v>101</v>
       </c>
       <c r="G72" t="s">
         <v>9</v>
@@ -2450,10 +2471,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B73" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>13</v>
@@ -2465,19 +2486,19 @@
         <v>3</v>
       </c>
       <c r="F73" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G73" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>13</v>
@@ -2489,19 +2510,19 @@
         <v>3</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G74" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>7</v>
@@ -2513,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="F75" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G75" t="s">
         <v>9</v>
@@ -2522,10 +2543,10 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B76" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C76" s="3" t="s">
         <v>8</v>
@@ -2537,19 +2558,19 @@
         <v>3</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G76" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>8</v>
@@ -2561,19 +2582,19 @@
         <v>3</v>
       </c>
       <c r="F77" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G77" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C78" t="s">
         <v>7</v>
@@ -2585,7 +2606,7 @@
         <v>3</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G78" t="s">
         <v>9</v>
@@ -2594,10 +2615,10 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C79" t="s">
         <v>13</v>
@@ -2609,19 +2630,19 @@
         <v>3</v>
       </c>
       <c r="F79" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G79" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C80" t="s">
         <v>13</v>
@@ -2633,16 +2654,16 @@
         <v>3</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G80" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -2657,16 +2678,16 @@
         <v>3</v>
       </c>
       <c r="F81" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G81" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -2681,19 +2702,19 @@
         <v>3</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G82" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C83" t="s">
         <v>7</v>
@@ -2705,7 +2726,7 @@
         <v>3</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G83" t="s">
         <v>9</v>
@@ -2714,10 +2735,10 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C84" t="s">
         <v>8</v>
@@ -2729,19 +2750,19 @@
         <v>3</v>
       </c>
       <c r="F84" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G84" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C85" t="s">
         <v>13</v>
@@ -2753,19 +2774,19 @@
         <v>3</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G85" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B86" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C86" t="s">
         <v>8</v>
@@ -2777,7 +2798,7 @@
         <v>4</v>
       </c>
       <c r="F86" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G86" t="s">
         <v>9</v>
@@ -2786,10 +2807,10 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B87" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C87" t="s">
         <v>13</v>
@@ -2801,19 +2822,19 @@
         <v>4</v>
       </c>
       <c r="F87" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G87" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B88" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C88" t="s">
         <v>13</v>
@@ -2825,19 +2846,19 @@
         <v>4</v>
       </c>
       <c r="F88" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G88" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B89" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="C89" t="s">
         <v>13</v>
@@ -2849,19 +2870,19 @@
         <v>4</v>
       </c>
       <c r="F89" t="s">
-        <v>57</v>
+        <v>109</v>
       </c>
       <c r="G89" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B90" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C90" t="s">
         <v>7</v>
@@ -2873,7 +2894,7 @@
         <v>4</v>
       </c>
       <c r="F90" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G90" t="s">
         <v>9</v>
@@ -2882,10 +2903,10 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B91" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C91" t="s">
         <v>13</v>
@@ -2897,19 +2918,19 @@
         <v>4</v>
       </c>
       <c r="F91" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G91" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B92" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C92" t="s">
         <v>13</v>
@@ -2921,42 +2942,42 @@
         <v>4</v>
       </c>
       <c r="F92" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G92" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B93" t="s">
+        <v>77</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93">
+        <v>18</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>110</v>
+      </c>
+      <c r="G93" t="s">
         <v>80</v>
-      </c>
-      <c r="B93" t="s">
-        <v>81</v>
-      </c>
-      <c r="C93" t="s">
-        <v>13</v>
-      </c>
-      <c r="D93">
-        <v>18</v>
-      </c>
-      <c r="E93">
-        <v>4</v>
-      </c>
-      <c r="F93" t="s">
-        <v>103</v>
-      </c>
-      <c r="G93" t="s">
-        <v>84</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B94" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C94" t="s">
         <v>7</v>
@@ -2968,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="F94" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G94" t="s">
         <v>9</v>
@@ -2977,10 +2998,10 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B95" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C95" t="s">
         <v>13</v>
@@ -2992,19 +3013,19 @@
         <v>4</v>
       </c>
       <c r="F95" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G95" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B96" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C96" t="s">
         <v>13</v>
@@ -3016,19 +3037,19 @@
         <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G96" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B97" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C97" t="s">
         <v>13</v>
@@ -3040,19 +3061,19 @@
         <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G97" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B98" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C98" t="s">
         <v>7</v>
@@ -3064,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G98" t="s">
         <v>9</v>
@@ -3073,10 +3094,10 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B99" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C99" t="s">
         <v>7</v>
@@ -3088,19 +3109,19 @@
         <v>4</v>
       </c>
       <c r="F99" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G99" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B100" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C100" t="s">
         <v>7</v>
@@ -3112,19 +3133,19 @@
         <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G100" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B101" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C101" t="s">
         <v>7</v>
@@ -3136,19 +3157,19 @@
         <v>4</v>
       </c>
       <c r="F101" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G101" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K101" s="1"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B102" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C102" t="s">
         <v>7</v>
@@ -3160,7 +3181,7 @@
         <v>4</v>
       </c>
       <c r="F102" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G102" t="s">
         <v>9</v>
@@ -3169,10 +3190,10 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B103" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C103" t="s">
         <v>7</v>
@@ -3184,19 +3205,19 @@
         <v>4</v>
       </c>
       <c r="F103" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G103" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K103" s="1"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B104" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C104" t="s">
         <v>7</v>
@@ -3208,19 +3229,19 @@
         <v>4</v>
       </c>
       <c r="F104" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G104" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K104" s="1"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B105" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C105" t="s">
         <v>7</v>
@@ -3232,19 +3253,19 @@
         <v>4</v>
       </c>
       <c r="F105" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G105" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K105" s="1"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B106" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C106" t="s">
         <v>7</v>
@@ -3256,7 +3277,7 @@
         <v>4</v>
       </c>
       <c r="F106" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G106" t="s">
         <v>9</v>
@@ -3265,10 +3286,10 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C107" t="s">
         <v>13</v>
@@ -3280,7 +3301,7 @@
         <v>4</v>
       </c>
       <c r="F107" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G107" t="s">
         <v>9</v>
@@ -3289,10 +3310,10 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B108" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C108" t="s">
         <v>7</v>
@@ -3304,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="F108" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G108" t="s">
         <v>9</v>
@@ -3313,10 +3334,10 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B109" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C109" t="s">
         <v>13</v>
@@ -3328,7 +3349,7 @@
         <v>4</v>
       </c>
       <c r="F109" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G109" t="s">
         <v>9</v>
@@ -3337,10 +3358,10 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B110" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3352,7 +3373,7 @@
         <v>4</v>
       </c>
       <c r="F110" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G110" t="s">
         <v>9</v>
@@ -3361,10 +3382,10 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A111" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B111" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C111" t="s">
         <v>13</v>
@@ -3376,7 +3397,7 @@
         <v>4</v>
       </c>
       <c r="F111" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G111" t="s">
         <v>9</v>
@@ -3385,10 +3406,10 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A112" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B112" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -3400,7 +3421,7 @@
         <v>4</v>
       </c>
       <c r="F112" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G112" t="s">
         <v>9</v>
@@ -3409,10 +3430,10 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A113" s="3" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B113" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C113" t="s">
         <v>13</v>
@@ -3424,7 +3445,7 @@
         <v>4</v>
       </c>
       <c r="F113" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G113" t="s">
         <v>9</v>
@@ -3433,7 +3454,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A114" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B114" t="s">
         <v>20</v>
@@ -3448,16 +3469,16 @@
         <v>4</v>
       </c>
       <c r="F114" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G114" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K114" s="1"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A115" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B115" t="s">
         <v>20</v>
@@ -3472,16 +3493,16 @@
         <v>4</v>
       </c>
       <c r="F115" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G115" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K115" s="1"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A116" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B116" t="s">
         <v>20</v>
@@ -3496,19 +3517,19 @@
         <v>4</v>
       </c>
       <c r="F116" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G116" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K116" s="1"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A117" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B117" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -3520,7 +3541,7 @@
         <v>4</v>
       </c>
       <c r="F117" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G117" t="s">
         <v>9</v>
@@ -3529,10 +3550,10 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A118" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B118" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C118" t="s">
         <v>8</v>
@@ -3544,19 +3565,19 @@
         <v>4</v>
       </c>
       <c r="F118" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G118" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K118" s="1"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B119" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C119" t="s">
         <v>8</v>
@@ -3568,19 +3589,19 @@
         <v>4</v>
       </c>
       <c r="F119" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G119" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K119" s="1"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B120" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C120" t="s">
         <v>8</v>
@@ -3592,19 +3613,19 @@
         <v>4</v>
       </c>
       <c r="F120" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G120" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K120" s="1"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A121" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B121" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -3616,7 +3637,7 @@
         <v>4</v>
       </c>
       <c r="F121" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G121" t="s">
         <v>9</v>
@@ -3625,10 +3646,10 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A122" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B122" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -3640,19 +3661,19 @@
         <v>4</v>
       </c>
       <c r="F122" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G122" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="K122" s="1"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A123" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -3664,19 +3685,19 @@
         <v>4</v>
       </c>
       <c r="F123" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G123" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="K123" s="1"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -3688,19 +3709,19 @@
         <v>4</v>
       </c>
       <c r="F124" t="s">
-        <v>25</v>
+        <v>100</v>
       </c>
       <c r="G124" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="K124" s="1"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A125" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B125" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -3712,19 +3733,19 @@
         <v>4</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G125" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K125" s="1"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B126" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -3736,16 +3757,16 @@
         <v>4</v>
       </c>
       <c r="F126" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G126" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K126" s="1"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B127" t="s">
         <v>20</v>
@@ -3760,16 +3781,16 @@
         <v>4</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G127" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K127" s="1"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A128" s="3" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B128" t="s">
         <v>20</v>
@@ -3784,19 +3805,19 @@
         <v>4</v>
       </c>
       <c r="F128" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G128" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K128" s="1"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A129" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B129" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>7</v>
@@ -3808,19 +3829,19 @@
         <v>4</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G129" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K129" s="1"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B130" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>13</v>
@@ -3832,19 +3853,19 @@
         <v>4</v>
       </c>
       <c r="F130" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G130" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K130" s="1"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A131" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B131" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>7</v>
@@ -3856,19 +3877,19 @@
         <v>4</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G131" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K131" s="1"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A132" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B132" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>13</v>
@@ -3880,16 +3901,16 @@
         <v>4</v>
       </c>
       <c r="F132" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G132" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K132" s="1"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B133" t="s">
         <v>20</v>
@@ -3904,16 +3925,16 @@
         <v>4</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G133" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K133" s="1"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="B134" t="s">
         <v>20</v>
@@ -3928,19 +3949,19 @@
         <v>4</v>
       </c>
       <c r="F134" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G134" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="K134" s="1"/>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A135" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>7</v>
@@ -3952,7 +3973,7 @@
         <v>3</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
+        <v>105</v>
       </c>
       <c r="G135" t="s">
         <v>9</v>
@@ -3961,10 +3982,10 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A136" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>7</v>
@@ -3976,7 +3997,7 @@
         <v>4</v>
       </c>
       <c r="F136" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="G136" t="s">
         <v>9</v>
@@ -3985,10 +4006,10 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A137" s="3" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B137" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -4000,7 +4021,7 @@
         <v>4</v>
       </c>
       <c r="F137" t="s">
-        <v>26</v>
+        <v>104</v>
       </c>
       <c r="G137" t="s">
         <v>9</v>
